--- a/data/sedimentationskurve.xlsx
+++ b/data/sedimentationskurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\3. Semester\Umwelttechnik-Abwasser-2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\Umwelttechnik-Abwasser-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483FDBB7-7EBE-4B7D-B5C9-F763BD45FF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E7650-9803-47A7-BB6D-2ACFADFCE733}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25DE25BD-DED1-492B-A68F-C8F69AD7B510}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25DE25BD-DED1-492B-A68F-C8F69AD7B510}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -114,13 +114,13 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +200,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -867,7 +867,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BE3E-443E-940A-D9A3EDFDDA82}"/>
                   </c:ext>
@@ -1040,7 +1040,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-BE3E-443E-940A-D9A3EDFDDA82}"/>
                   </c:ext>
@@ -1213,7 +1213,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-BE3E-443E-940A-D9A3EDFDDA82}"/>
                   </c:ext>
@@ -1278,7 +1278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1848140688"/>
@@ -1340,7 +1340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843490752"/>
@@ -1382,7 +1382,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1419,7 +1419,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1470,7 +1470,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1824,7 +1824,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle1!$G$1</c15:sqref>
@@ -1865,7 +1865,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle1!$A$2:$A$16</c15:sqref>
@@ -1925,7 +1925,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle1!$G$2:$G$16</c15:sqref>
@@ -1984,7 +1984,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-B736-40F2-9BF9-06C728738E68}"/>
                   </c:ext>
@@ -2049,7 +2049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1848140688"/>
@@ -2111,7 +2111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1843490752"/>
@@ -2153,7 +2153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2190,7 +2190,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3396,17 +3396,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{696C1C63-8A45-4A6A-A67F-04050BC6A02C}" name="Tabelle1" displayName="Tabelle1" ref="A1:G16" totalsRowShown="0">
   <autoFilter ref="A1:G16" xr:uid="{ED6A6185-ECDA-4A4F-8E1A-B92C31B2CAE2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2B1F60A8-2322-4779-9173-CA962DBA2747}" name="Zeit" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{2B1F60A8-2322-4779-9173-CA962DBA2747}" name="Zeit" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{1F9D0791-BBE9-44BF-B2CD-DBD9EA0F2EE9}" name="Probe 1"/>
-    <tableColumn id="3" xr3:uid="{5ECD671E-7C41-42DE-B457-B8FFDEE64ADF}" name="Probe 2" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{906C5F26-ABBC-4E54-8B40-001A8D3A15FE}" name="Probe 3" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{423EB68E-7250-489C-8A42-7470DCF38148}" name="Probe 1 korr" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{5ECD671E-7C41-42DE-B457-B8FFDEE64ADF}" name="Probe 2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{906C5F26-ABBC-4E54-8B40-001A8D3A15FE}" name="Probe 3" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{423EB68E-7250-489C-8A42-7470DCF38148}" name="Probe 1 korr" dataDxfId="2">
       <calculatedColumnFormula>1000-Tabelle1[[#This Row],[Probe 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4AAD8846-A659-45C4-BB3D-D0739E31001C}" name="Probe 2 korr" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{4AAD8846-A659-45C4-BB3D-D0739E31001C}" name="Probe 2 korr" dataDxfId="1">
       <calculatedColumnFormula>1000-Tabelle1[[#This Row],[Probe 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B70C6F01-CF06-4ADC-830C-418E121361DB}" name="Probe 3 korr" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{B70C6F01-CF06-4ADC-830C-418E121361DB}" name="Probe 3 korr" dataDxfId="0">
       <calculatedColumnFormula>1000-Tabelle1[[#This Row],[Probe 3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3713,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F6E5F7-B3CC-4111-A89B-D7E0355119B4}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
